--- a/data/air_info/东京-洛杉矶.xlsx
+++ b/data/air_info/东京-洛杉矶.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6A8B3D-F6D5-43F0-B8B2-C0C8C679081F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6583C560-839E-4EAA-A49F-8036C9B5F808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,54 +33,30 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
-    <t>行程时间：10 小时 5 分钟</t>
-  </si>
-  <si>
     <t>美航经济舱Boeing 787AA 170</t>
   </si>
   <si>
-    <t>行程时间：9 小时 50 分钟</t>
-  </si>
-  <si>
     <t>ZIPAIR Tokyo经济舱Boeing 787ZG 24</t>
   </si>
   <si>
-    <t>行程时间：10 小时 35 分钟</t>
-  </si>
-  <si>
     <t>达美航空经济舱Airbus A330-900neoDL 8</t>
   </si>
   <si>
-    <t>行程时间：9 小时 55 分钟</t>
-  </si>
-  <si>
     <t>美联航经济舱Boeing 787UA 33</t>
   </si>
   <si>
-    <t>行程时间：10 小时</t>
-  </si>
-  <si>
     <t>日航经济舱Boeing 777JL 16</t>
   </si>
   <si>
     <t>日航经济舱Boeing 787JL 62</t>
   </si>
   <si>
-    <t>行程时间：10 小时 15 分钟</t>
-  </si>
-  <si>
     <t>美联航经济舱Boeing 787-10UA 38</t>
   </si>
   <si>
-    <t>行程时间：10 小时 10 分钟</t>
-  </si>
-  <si>
     <t>新航经济舱Boeing 777SQ 12</t>
   </si>
   <si>
-    <t>行程时间：10 小时 8 分钟</t>
-  </si>
-  <si>
     <t>美航经济舱Boeing 787AA 26</t>
   </si>
   <si>
@@ -115,7 +91,30 @@
   </si>
   <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 小时 5 分钟</t>
+  </si>
+  <si>
+    <t>9 小时 50 分钟</t>
+  </si>
+  <si>
+    <t>10 小时 35 分钟</t>
+  </si>
+  <si>
+    <t>9 小时 55 分钟</t>
+  </si>
+  <si>
+    <t>10 小时</t>
+  </si>
+  <si>
+    <t>10 小时 15 分钟</t>
+  </si>
+  <si>
+    <t>10 小时 10 分钟</t>
+  </si>
+  <si>
+    <t>10 小时 8 分钟</t>
   </si>
 </sst>
 </file>
@@ -471,7 +470,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -482,31 +481,30 @@
     <col min="4" max="4" width="23.90625" customWidth="1"/>
     <col min="5" max="5" width="34.1796875" customWidth="1"/>
     <col min="6" max="6" width="40.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1"/>
     <col min="12" max="12" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -514,23 +512,22 @@
         <v>0.49652777777777779</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>0.25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f ca="1">G3</f>
-        <v>4491</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -538,23 +535,22 @@
         <v>0.61111111111111116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>0.35416666666666669</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <f ca="1">RANDBETWEEN(3000,4500)</f>
-        <v>4491</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -562,23 +558,22 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>0.47222222222222221</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G3:G11" ca="1" si="0">RANDBETWEEN(3000,4500)</f>
-        <v>3386</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -586,23 +581,22 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>0.4513888888888889</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3612</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -610,23 +604,22 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>0.45833333333333331</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3009</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -634,23 +627,22 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
         <v>0.46527777777777779</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>3394</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -658,23 +650,22 @@
         <v>0.76736111111111116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>0.52777777777777779</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>3151</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -682,23 +673,22 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>0.53472222222222221</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>3443</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -706,23 +696,22 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>0.57847222222222228</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3110</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -730,23 +719,22 @@
         <v>0.87847222222222221</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>0.63194444444444442</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>3773</v>
+        <v>2797</v>
       </c>
     </row>
   </sheetData>

--- a/data/air_info/东京-洛杉矶.xlsx
+++ b/data/air_info/东京-洛杉矶.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6583C560-839E-4EAA-A49F-8036C9B5F808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDCFF15-BF56-493C-B974-1F680C4F3780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>0.49652777777777779</v>
+        <v>0.25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -518,7 +518,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>0.25</v>
+        <v>0.49652777777777779</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>0.61111111111111116</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -541,7 +541,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="2">
-        <v>0.35416666666666669</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>0.69791666666666663</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -564,7 +564,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="2">
-        <v>0.47222222222222221</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>0.70486111111111116</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="2">
-        <v>0.4513888888888889</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -610,7 +610,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>0.72222222222222221</v>
+        <v>0.46527777777777779</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -633,7 +633,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2">
-        <v>0.46527777777777779</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>0.76736111111111116</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -656,7 +656,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="2">
-        <v>0.52777777777777779</v>
+        <v>0.76736111111111116</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>0.77777777777777779</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -679,7 +679,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="2">
-        <v>0.53472222222222221</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0.82291666666666663</v>
+        <v>0.57847222222222228</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -702,7 +702,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>0.57847222222222228</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>0.87847222222222221</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -725,7 +725,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>0.63194444444444442</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
